--- a/CM_GIT/laba_4.xlsx
+++ b/CM_GIT/laba_4.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osnov\Documents\ЦМ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osnov\Desktop\GIT_UNIVERSITY\CM_GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C927C-6FBE-43A7-99B7-1855C71B0FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E72212-4362-45FD-96C0-4DA730E43F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>p=</t>
   </si>
@@ -139,6 +141,42 @@
   </si>
   <si>
     <t>относительная погрешность=</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Номер точки</t>
+  </si>
+  <si>
+    <t>сумма</t>
+  </si>
+  <si>
+    <t>Формула прямоугольников</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>высота детали</t>
+  </si>
+  <si>
+    <t>длина детали\</t>
+  </si>
+  <si>
+    <t>шаг</t>
+  </si>
+  <si>
+    <t>высота трап</t>
+  </si>
+  <si>
+    <t>формула трапеции</t>
+  </si>
+  <si>
+    <t>n по симпсону</t>
   </si>
 </sst>
 </file>
@@ -151,7 +189,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +202,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -518,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A2" zoomScale="97" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,4 +1233,944 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1ECD2-556A-4F82-82F0-5FEA2A6ADCB5}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <f>0.2*(B1+B2+1)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f>5+B1+B2</f>
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>1+0.1*(B1+B2+2)</f>
+        <v>1.3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>7.8499999999999993E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <f>($F$1*B7^$B$3+$F$2)^2</f>
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6">
+        <f xml:space="preserve"> PI()*F4*SUM(C8:C27)</f>
+        <v>476239.68254496757</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>1+A7</f>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>B7+$F$4</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" ref="C8:C27" si="0">($F$1*B8^$B$3+$F$2)^2</f>
+        <v>58.80538619725084</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6">
+        <f>PI()*F4*(0.5*C7+SUM(C8:C26)+0.5*C27)</f>
+        <v>439941.20228654915</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>G7</f>
+        <v>см^3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" ref="A9:A27" si="1">1+A8</f>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:B27" si="2">B8+$F$4</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>102.17667080812058</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="9">
+        <f>F19</f>
+        <v>381.69972153925539</v>
+      </c>
+      <c r="L9" s="9">
+        <f>F20</f>
+        <v>136.5030373210727</v>
+      </c>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>167.9474832733035</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f>E7</f>
+        <v>форм. прямоугол=</v>
+      </c>
+      <c r="F10" s="7">
+        <f>F7*F$5</f>
+        <v>3738.4815079779951</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="9">
+        <f>F10</f>
+        <v>3738.4815079779951</v>
+      </c>
+      <c r="K10" s="10">
+        <f>K9-$J10</f>
+        <v>-3356.7817864387398</v>
+      </c>
+      <c r="L10" s="10">
+        <f>L9-$J10</f>
+        <v>-3601.9784706569226</v>
+      </c>
+      <c r="M10" s="10">
+        <f>K10-L10</f>
+        <v>245.19668421818278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>259.71553885148973</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f>E8</f>
+        <v>форм. трапеций=</v>
+      </c>
+      <c r="F11" s="7">
+        <f>F8*F$5</f>
+        <v>3453.5384379494103</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="9">
+        <f>F11</f>
+        <v>3453.5384379494103</v>
+      </c>
+      <c r="K11" s="10">
+        <f>K9-$J11</f>
+        <v>-3071.838716410155</v>
+      </c>
+      <c r="L11" s="10">
+        <f>L9-$J11</f>
+        <v>-3317.0354006283378</v>
+      </c>
+      <c r="M11" s="10">
+        <f>K11-L11</f>
+        <v>245.19668421818278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>381.03275353221795</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>535.2832496382988</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8">
+        <f>SQRT(C27)</f>
+        <v>87.970317417114245</v>
+      </c>
+      <c r="I13" t="str">
+        <f>I7</f>
+        <v>масса детали по формуле</v>
+      </c>
+      <c r="K13" t="str">
+        <f>K7</f>
+        <v>масса,если заготовка</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>725.68150470503258</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <f>SQRT(C7)</f>
+        <v>6</v>
+      </c>
+      <c r="K14" t="str">
+        <f>K8</f>
+        <v>цилиндрическая</v>
+      </c>
+      <c r="L14" t="str">
+        <f>L8</f>
+        <v>конусообразная</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>955.28939121817723</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="9">
+        <f>K9</f>
+        <v>381.69972153925539</v>
+      </c>
+      <c r="L15" s="9">
+        <f>L9</f>
+        <v>136.5030373210727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>1227.0346310595087</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="6">
+        <f>PI()*F13^2*F3</f>
+        <v>48624.168348949737</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>G7</f>
+        <v>см^3</v>
+      </c>
+      <c r="I16" t="str">
+        <f>I10</f>
+        <v>прямоугольников</v>
+      </c>
+      <c r="J16" s="9">
+        <f>J10</f>
+        <v>3738.4815079779951</v>
+      </c>
+      <c r="K16" s="3">
+        <f>K10/K$15</f>
+        <v>-8.7942998043123168</v>
+      </c>
+      <c r="L16" s="3">
+        <f>L10/L$15</f>
+        <v>-26.38753350362898</v>
+      </c>
+      <c r="M16" s="3">
+        <f>K16-L16</f>
+        <v>17.593233699316663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>1543.72715357735</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="4">
+        <f>PI()*F3*(F13^2+F13*F14+F14^2)/3</f>
+        <v>17388.921951729008</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f>G8</f>
+        <v>см^3</v>
+      </c>
+      <c r="I17" t="str">
+        <f>I11</f>
+        <v>трапеций</v>
+      </c>
+      <c r="J17" s="9">
+        <f>J11</f>
+        <v>3453.5384379494103</v>
+      </c>
+      <c r="K17" s="3">
+        <f>K11/K$15</f>
+        <v>-8.0477887278055977</v>
+      </c>
+      <c r="L17" s="3">
+        <f>L11/L$15</f>
+        <v>-24.300084933833698</v>
+      </c>
+      <c r="M17" s="3">
+        <f>K17-L17</f>
+        <v>16.252296206028099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>1908.0729161910265</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>2322.6854576615469</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>E16</f>
+        <v>цилиндрической</v>
+      </c>
+      <c r="F19" s="7">
+        <f>F16*F$5</f>
+        <v>381.69972153925539</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f>G10</f>
+        <v>кг</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>2790.0955728569702</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f>E17</f>
+        <v>конусообразной</v>
+      </c>
+      <c r="F20" s="7">
+        <f>F17*F$5</f>
+        <v>136.5030373210727</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f>G11</f>
+        <v>кг</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>3312.7594651565655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="0"/>
+        <v>3893.0656695993712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="0"/>
+        <v>4533.3409797516224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="0"/>
+        <v>5235.8555616354397</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <f>PI()*(F1^2*F3^(2*B3+1)/(2*B3+1)+2*F1*F2*F3^(B3+1)/(B3+1)+F2^2*F3)</f>
+        <v>260.17508249361782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="0"/>
+        <v>6002.8273990498983</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25">
+        <f>ABS(G24-F7)/G24</f>
+        <v>1829.4584665852844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="0"/>
+        <v>6836.426184466729</v>
+      </c>
+      <c r="G26">
+        <f>ABS(G24-F8)/G24</f>
+        <v>1689.9428761201259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="0"/>
+        <v>7738.7767464678336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948FD75C-9176-4C3D-B330-A5461E7FD44A}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1">
+        <f>11</f>
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1">
+        <f>B1/2</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <f>(E3-E2)/B1</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <f>B4/B1</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>2 + COS((B7/2) * 3.14)</f>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f>SUM(B7:C18)</f>
+        <v>36.005542054100751</v>
+      </c>
+      <c r="E7">
+        <f>2 *D7</f>
+        <v>72.011084108201501</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <f>B3*((C7/2)+SUM(C8:C17)+(C18/2))</f>
+        <v>4.0010075309026396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>A7+1</f>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>B7+$E$4</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C18" si="0">2 + COS((B8/2) * 3.14)</f>
+        <v>2.9595337546817051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" ref="A9:A18" si="1">A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:B18" si="2">B8+$E$4</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.841410052747142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.655188939597088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="2"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.4159417537278962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.1430313657697542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="2"/>
+        <v>1.0909090909090911</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.8585450931407133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>1.2727272727272729</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.5855071184365612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="2"/>
+        <v>1.4545454545454548</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.3460150849884751</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>1.6363636363636367</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.1594516795510299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>1.8181818181818186</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.0409159431879225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.0000012682724604</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>